--- a/biology/Zoologie/Pompilinites_coquandi/Pompilinites_coquandi.xlsx
+++ b/biology/Zoologie/Pompilinites_coquandi/Pompilinites_coquandi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pompilus coquandi
 Pompilinites coquandi est une espèce fossile d'insectes Hyménoptères de la super-famille des Vespoidea, de la famille des Pompilidae et du genre Pompilinites.
@@ -512,17 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Pompilinites coquandi est décrite en 1937 par le paléontologue français Nicolas Théobald dans sa thèse, sous le protonyme Pompilus coquandi[1],[1],[2]. 
-Genre Pompilinites : 2017
-Le reclassement dans le genre Pompilinites est déclaré par Juanita Rodriguez (d), Cecília Waichert (d) Carol D. von Dohlen (d) et James P. Pitts (d) en 2017[3],[2].
-Sous-famille : Pompilinae
-En 2017, Rodriguez et al. reclasse le genre Pompilinites dans la sous-famille des Pompilinae[3],[2]. 
-Fossile
-L'holotype Am1 (?ou am12 ?) appartient à la collection du muséum national d'histoire naturelle de Paris et vient du gypse d'Aix-en-Provence[1],[4].
-Étymologie
-L'épithète spécifique coquandi est un hommage au paléontologue français et provençal Henri Coquand (1811-1881)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Pompilinites coquandi est décrite en 1937 par le paléontologue français Nicolas Théobald dans sa thèse, sous le protonyme Pompilus coquandi. 
 </t>
         </is>
       </c>
@@ -548,18 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[1],[note 1] : 
-« Bel Insecte noir à ailes enfumées. tête transversale ; deux gros yeux de forme ovale ; antennes enroulées ; articles cylindriques. Thorax ovale, mésonotum trapézoïdal, conserve une belle teinte noire. Abdomen sessile, fusiforme, couvert d'une fine pruinosité brune. Pattes longues, les fémurs III atteignent le milieu de l'abdomen ; tibias II portent un long éperon ; sur les autres pattes l'éperon n'est pas visible ; tarse couvert de poils fins ; les différents articles sont garnis de cils à l'extrémité. Ailes enfumées ; nervation bien conservée ; trois cellules cubitales, les deuxième et troisième à peu près égales ; les nervures cubitale et discoïdale s'arrêtent un peu avant le bord de l'aile (v.fig.) »[1].
-Dimensions
-L'holotype a une longueur totale de 11 mm, la tête de 1,5 mm, le thorax de 4 mm, l'abdomen de 5,5 mm, l'aile de 7 mm[1].
-Affinités
-« L'échantillon appartient certainement à la famille des Pompilidae. Il était d'ailleurs étiqueté Pompilus Coquandi Sauss. : mais à ma connaissance, n'a pas encore été publié. »[1]
+          <t>Genre Pompilinites : 2017</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le reclassement dans le genre Pompilinites est déclaré par Juanita Rodriguez (d), Cecília Waichert (d) Carol D. von Dohlen (d) et James P. Pitts (d) en 2017,.
 </t>
         </is>
       </c>
@@ -585,12 +591,239 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-famille : Pompilinae</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2017, Rodriguez et al. reclasse le genre Pompilinites dans la sous-famille des Pompilinae,. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pompilinites_coquandi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pompilinites_coquandi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fossile</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype Am1 (?ou am12 ?) appartient à la collection du muséum national d'histoire naturelle de Paris et vient du gypse d'Aix-en-Provence,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pompilinites_coquandi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pompilinites_coquandi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique coquandi est un hommage au paléontologue français et provençal Henri Coquand (1811-1881).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pompilinites_coquandi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pompilinites_coquandi</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 1] : 
+« Bel Insecte noir à ailes enfumées. tête transversale ; deux gros yeux de forme ovale ; antennes enroulées ; articles cylindriques. Thorax ovale, mésonotum trapézoïdal, conserve une belle teinte noire. Abdomen sessile, fusiforme, couvert d'une fine pruinosité brune. Pattes longues, les fémurs III atteignent le milieu de l'abdomen ; tibias II portent un long éperon ; sur les autres pattes l'éperon n'est pas visible ; tarse couvert de poils fins ; les différents articles sont garnis de cils à l'extrémité. Ailes enfumées ; nervation bien conservée ; trois cellules cubitales, les deuxième et troisième à peu près égales ; les nervures cubitale et discoïdale s'arrêtent un peu avant le bord de l'aile (v.fig.) ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pompilinites_coquandi</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pompilinites_coquandi</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype a une longueur totale de 11 mm, la tête de 1,5 mm, le thorax de 4 mm, l'abdomen de 5,5 mm, l'aile de 7 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pompilinites_coquandi</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pompilinites_coquandi</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« L'échantillon appartient certainement à la famille des Pompilidae. Il était d'ailleurs étiqueté Pompilus Coquandi Sauss. : mais à ma connaissance, n'a pas encore été publié. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pompilinites_coquandi</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pompilinites_coquandi</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« Les Pompiles chassent les Araignées. Ces dernières sont aussi représentées dans la faune d'Aix »[1].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Les Pompiles chassent les Araignées. Ces dernières sont aussi représentées dans la faune d'Aix ».
 </t>
         </is>
       </c>
